--- a/DCT1202.xlsx
+++ b/DCT1202.xlsx
@@ -12,29 +12,35 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>Tổng số học sinh:</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Số lượng hoc sinh khá:</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>Số lượng hoc sinh khá:</t>
+    <t>Số lượng học sinh giỏi:</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Số lượng học sinh trung bình:</t>
+  </si>
+  <si>
+    <t>Số lượng học sinh yếu:</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>Số lượng học sinh giỏi:</t>
-  </si>
-  <si>
-    <t>Số lượng học sinh trung bình:</t>
-  </si>
-  <si>
-    <t>Số lượng học sinh yếu:</t>
-  </si>
-  <si>
     <t>MAHS</t>
   </si>
   <si>
@@ -50,25 +56,61 @@
     <t>HỌC LỰC</t>
   </si>
   <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>Trần Minh Quân</t>
+    <t>126</t>
+  </si>
+  <si>
+    <t>Lê Thanh Chí</t>
   </si>
   <si>
     <t>DCT1202</t>
   </si>
   <si>
-    <t>10.0</t>
+    <t>8.9</t>
   </si>
   <si>
     <t>Giỏi</t>
   </si>
   <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>Nguyễn Thanh Quang</t>
+    <t>127</t>
+  </si>
+  <si>
+    <t>Lê Chí Dũng</t>
+  </si>
+  <si>
+    <t>7.4</t>
+  </si>
+  <si>
+    <t>Khá</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>Nguyễn Bảo An</t>
+  </si>
+  <si>
+    <t>7.38</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>Nguyễn Bảo Bảo</t>
+  </si>
+  <si>
+    <t>5.67</t>
+  </si>
+  <si>
+    <t>Trung bình</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Lan</t>
+  </si>
+  <si>
+    <t>5.8</t>
   </si>
 </sst>
 </file>
@@ -113,7 +155,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -140,12 +182,12 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -153,61 +195,112 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
